--- a/logs/charts_results_files/data_ws_8.xlsx
+++ b/logs/charts_results_files/data_ws_8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joela\crc-p2\logs\charts_results_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F07680-CDFF-4C1D-B537-28E7A709760D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BA8A25-7FB5-45DB-B628-73F4E7FDDB20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6024" activeTab="1" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6030" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Propensities" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>BA</a:t>
+              <a:t>WS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2598,17 +2598,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBC3508-0AAE-4174-8A79-7702F3EC4B68}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>0.85466806724478395</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>3.2852052313315898</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>7.7599452976715097E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>-1.8401713369391299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>0.78789674327218995</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>-3.34706011691588</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>12.692244954311899</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>7.3773262282146396E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>-4.1093877916579302</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3318,17 +3318,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A27663-91EF-4D48-80A2-AA02D366EDA3}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>0.77422222222222237</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>0.77600000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>38.988999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>40.555999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>39.42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>38.945</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>40.790999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>1.046</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>39.930999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>39.401000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>39.090000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>39.332999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>40.279000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>39.838000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>40.033000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>41.225000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>40.584000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>41.542000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>40.564</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>38.633000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>39.387999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>40.295000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>38.167000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>39.28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4021,14 +4021,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>3.5676690023356645</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>3.5673913913913902</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>3.56726126126126</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>3.5633893893893802</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>3.56962562562562</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>3.57095295295295</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>3.5665645645645601</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>3.5674374374374298</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>3.56863463463463</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>3.5702582582582498</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>3.5658318318318298</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>3.5688008008007999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>3.5661521521521502</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>3.5660260260260199</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>3.5710750750750702</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>3.5658418418418401</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>3.5673833833833801</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>3.5689269269269199</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>3.56471471471471</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>3.5711231231231202</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>3.5723463463463401</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>3.5686606606606599</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>3.5707347347347298</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>3.5656136136136101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>3.56999399399399</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>3.5655155155155098</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>3.5681341341341302</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>3.5623263263263198</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>3.5661601601601598</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>3.5672732732732699</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
